--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_29_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_29_9.xlsx
@@ -518,1321 +518,1321 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_29_9_11</t>
+          <t>model_29_9_20</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9403280912273934</v>
+        <v>0.9636471513144125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7756717671525153</v>
+        <v>0.8190720592391765</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8550087156398561</v>
+        <v>0.6926794283581161</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9107929198964628</v>
+        <v>0.8624721094929039</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9167435452701298</v>
+        <v>0.8810034532947724</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3990263287262963</v>
+        <v>0.2430916665500004</v>
       </c>
       <c r="H2" t="n">
-        <v>1.500083925987663</v>
+        <v>1.20986597296419</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6184154022309406</v>
+        <v>0.3397869772950561</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2342157430899804</v>
+        <v>0.2735668144938662</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4263155726604606</v>
+        <v>0.3066768958944612</v>
       </c>
       <c r="L2" t="n">
-        <v>1.56453283033141</v>
+        <v>1.317101313752829</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6316853083033483</v>
+        <v>0.4930432704641657</v>
       </c>
       <c r="N2" t="n">
-        <v>1.022032704777578</v>
+        <v>1.013422590283909</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6585774596466766</v>
+        <v>0.5140331432280967</v>
       </c>
       <c r="P2" t="n">
-        <v>179.8374557549732</v>
+        <v>180.8286333563472</v>
       </c>
       <c r="Q2" t="n">
-        <v>288.3174041682431</v>
+        <v>289.308581769617</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_29_9_12</t>
+          <t>model_29_9_21</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9401291396618282</v>
+        <v>0.9638947787265234</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7756677133746311</v>
+        <v>0.8190701506765983</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8468711355444287</v>
+        <v>0.6912832996454119</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9084297305495903</v>
+        <v>0.8593872534970305</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9127485387279375</v>
+        <v>0.8795135521983366</v>
       </c>
       <c r="G3" t="n">
-        <v>0.400356718761318</v>
+        <v>0.2414357809049952</v>
       </c>
       <c r="H3" t="n">
-        <v>1.500111033619041</v>
+        <v>1.20987873553094</v>
       </c>
       <c r="I3" t="n">
-        <v>0.653123728942498</v>
+        <v>0.3413305978625638</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2404203643857078</v>
+        <v>0.2797031278253053</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4467720466641029</v>
+        <v>0.310516656426139</v>
       </c>
       <c r="L3" t="n">
-        <v>1.557367100235395</v>
+        <v>1.304514018364904</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6327374801300442</v>
+        <v>0.4913611511963428</v>
       </c>
       <c r="N3" t="n">
-        <v>1.022106163817171</v>
+        <v>1.013331158624053</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6596744246063307</v>
+        <v>0.5122794126605756</v>
       </c>
       <c r="P3" t="n">
-        <v>179.8307986647709</v>
+        <v>180.842303517659</v>
       </c>
       <c r="Q3" t="n">
-        <v>288.3107470780407</v>
+        <v>289.3222519309289</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_29_9_10</t>
+          <t>model_29_9_19</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9404838818586793</v>
+        <v>0.9633862153406053</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7756393208095229</v>
+        <v>0.8190633873923623</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8629252430479496</v>
+        <v>0.6939562887157205</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9130789893717224</v>
+        <v>0.8655274302056459</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9206267246777368</v>
+        <v>0.8824565088810468</v>
       </c>
       <c r="G4" t="n">
-        <v>0.397984556057537</v>
+        <v>0.2448365466083489</v>
       </c>
       <c r="H4" t="n">
-        <v>1.500300894832655</v>
+        <v>1.209923961643768</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5846499072706507</v>
+        <v>0.3383752250032381</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2282136022253564</v>
+        <v>0.2674892519604769</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4064317107032288</v>
+        <v>0.302932093300613</v>
       </c>
       <c r="L4" t="n">
-        <v>1.571707320029967</v>
+        <v>1.329818115936061</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6308601715574831</v>
+        <v>0.4948096064228634</v>
       </c>
       <c r="N4" t="n">
-        <v>1.021975182082949</v>
+        <v>1.013518935874238</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6577171951212711</v>
+        <v>0.5158746757653756</v>
       </c>
       <c r="P4" t="n">
-        <v>179.8426841566522</v>
+        <v>180.8143288955722</v>
       </c>
       <c r="Q4" t="n">
-        <v>288.3226325699221</v>
+        <v>289.294277308842</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_29_9_13</t>
+          <t>model_29_9_22</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9398883703839682</v>
+        <v>0.9641292126956938</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7756281169452418</v>
+        <v>0.8190579324613068</v>
       </c>
       <c r="D5" t="n">
-        <v>0.838523170217239</v>
+        <v>0.6897678861749477</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9059888966630522</v>
+        <v>0.8562728238473508</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9086459987394058</v>
+        <v>0.8779865827955566</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4019667440310084</v>
+        <v>0.2398681198736833</v>
       </c>
       <c r="H5" t="n">
-        <v>1.500375815124692</v>
+        <v>1.209960438792854</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6887293886785746</v>
+        <v>0.3430061048412547</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2468288436435339</v>
+        <v>0.2858982682807182</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4677791468372721</v>
+        <v>0.3144519490840879</v>
       </c>
       <c r="L5" t="n">
-        <v>1.550216382906788</v>
+        <v>1.292063618102865</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6340084731539544</v>
+        <v>0.4897633304706298</v>
       </c>
       <c r="N5" t="n">
-        <v>1.022195063242842</v>
+        <v>1.013244598389282</v>
       </c>
       <c r="O5" t="n">
-        <v>0.660999526434587</v>
+        <v>0.5106135693986241</v>
       </c>
       <c r="P5" t="n">
-        <v>179.8227718401523</v>
+        <v>180.8553320143944</v>
       </c>
       <c r="Q5" t="n">
-        <v>288.3027202534221</v>
+        <v>289.3352804276643</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_29_9_9</t>
+          <t>model_29_9_18</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.940595178756371</v>
+        <v>0.9631114384534391</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7755694735343071</v>
+        <v>0.8190437249761084</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8706096927817555</v>
+        <v>0.6951065561978711</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9152892501992089</v>
+        <v>0.8685492100662177</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9243937990906407</v>
+        <v>0.8838693528895257</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3972403131901979</v>
+        <v>0.2466739809180607</v>
       </c>
       <c r="H6" t="n">
-        <v>1.500767963883641</v>
+        <v>1.210055444311794</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5518742677277176</v>
+        <v>0.3371034392950682</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2224104991360992</v>
+        <v>0.2614784079963163</v>
       </c>
       <c r="K6" t="n">
-        <v>0.387142365621189</v>
+        <v>0.2992909236456922</v>
       </c>
       <c r="L6" t="n">
-        <v>1.578894876502078</v>
+        <v>1.342668794141645</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6302700319626484</v>
+        <v>0.4966628443099612</v>
       </c>
       <c r="N6" t="n">
-        <v>1.021934087843801</v>
+        <v>1.013620391955653</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6571019320621271</v>
+        <v>0.5178068098260584</v>
       </c>
       <c r="P6" t="n">
-        <v>179.8464277170634</v>
+        <v>180.7993754590423</v>
       </c>
       <c r="Q6" t="n">
-        <v>288.3263761303333</v>
+        <v>289.2793238723121</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_29_9_14</t>
+          <t>model_29_9_23</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9396072856669437</v>
+        <v>0.964350965304049</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7755539444489868</v>
+        <v>0.8190356842331433</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8299771738124108</v>
+        <v>0.6881398659695901</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9034680868412244</v>
+        <v>0.8531308443708577</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9044404908381645</v>
+        <v>0.8764247224372584</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4038463588280267</v>
+        <v>0.2383852591605355</v>
       </c>
       <c r="H7" t="n">
-        <v>1.500871806948682</v>
+        <v>1.210109212797026</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7251796886223192</v>
+        <v>0.3448061147188828</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2534473020094242</v>
+        <v>0.2921482101173885</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4893134953158716</v>
+        <v>0.3184771624181356</v>
       </c>
       <c r="L7" t="n">
-        <v>1.543407149993528</v>
+        <v>1.280242028818009</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6354890705810972</v>
+        <v>0.4882471291882171</v>
       </c>
       <c r="N7" t="n">
-        <v>1.022298848369128</v>
+        <v>1.01316272050312</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6625431559594626</v>
+        <v>0.5090328202886498</v>
       </c>
       <c r="P7" t="n">
-        <v>179.8134415465679</v>
+        <v>180.8677343561659</v>
       </c>
       <c r="Q7" t="n">
-        <v>288.2933899598378</v>
+        <v>289.3476827694357</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_29_9_8</t>
+          <t>model_29_9_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9406606995802324</v>
+        <v>0.9628225363808952</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7754613036559372</v>
+        <v>0.8190128400717033</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8780511143323075</v>
+        <v>0.6961280274937238</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9174252608607053</v>
+        <v>0.8715371755492559</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9280406227544057</v>
+        <v>0.8852415761387322</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3968021751393409</v>
+        <v>0.248605870407433</v>
       </c>
       <c r="H8" t="n">
-        <v>1.501491296358377</v>
+        <v>1.210261971809763</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5201351896054491</v>
+        <v>0.3359740562467511</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2168023419836641</v>
+        <v>0.2555348266907467</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3684687657945566</v>
+        <v>0.2957544414687489</v>
       </c>
       <c r="L8" t="n">
-        <v>1.588351011652828</v>
+        <v>1.355654010433179</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6299223564371572</v>
+        <v>0.4986039213718972</v>
       </c>
       <c r="N8" t="n">
-        <v>1.021909895539606</v>
+        <v>1.013727063490131</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6567394552697281</v>
+        <v>0.5198305225571046</v>
       </c>
       <c r="P8" t="n">
-        <v>179.848634843769</v>
+        <v>180.7837729726339</v>
       </c>
       <c r="Q8" t="n">
-        <v>288.3285832570388</v>
+        <v>289.2637213859037</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_29_9_15</t>
+          <t>model_29_9_24</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9392871504656718</v>
+        <v>0.9645602626763528</v>
       </c>
       <c r="C9" t="n">
-        <v>0.775446204617641</v>
+        <v>0.8190037057479107</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8212435460381311</v>
+        <v>0.6864006664130921</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9008671540431999</v>
+        <v>0.84996260155311</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9001362747258526</v>
+        <v>0.8748290736428208</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4059871043930198</v>
+        <v>0.2369856866682149</v>
       </c>
       <c r="H9" t="n">
-        <v>1.501592263696988</v>
+        <v>1.210323053075024</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7624302720404985</v>
+        <v>0.3467290493179503</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2602761255434909</v>
+        <v>0.2984503942925293</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5113532802518053</v>
+        <v>0.3225894550246434</v>
       </c>
       <c r="L9" t="n">
-        <v>1.536955056385136</v>
+        <v>1.271468529818097</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6371711735421023</v>
+        <v>0.4868117569124794</v>
       </c>
       <c r="N9" t="n">
-        <v>1.022417052135752</v>
+        <v>1.013085441473347</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6642968695259507</v>
+        <v>0.5075363412435038</v>
       </c>
       <c r="P9" t="n">
-        <v>179.8028677649272</v>
+        <v>180.8795110669516</v>
       </c>
       <c r="Q9" t="n">
-        <v>288.282816178197</v>
+        <v>289.3594594802214</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_29_9_7</t>
+          <t>model_29_9_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9406791931183118</v>
+        <v>0.9625190617241123</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7753139365966674</v>
+        <v>0.8189704248062865</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8852397366028311</v>
+        <v>0.6970143242354535</v>
       </c>
       <c r="E10" t="n">
-        <v>0.919488961112379</v>
+        <v>0.8744897031839401</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9315636253293171</v>
+        <v>0.8865712069225842</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3966785087650486</v>
+        <v>0.2506352068347131</v>
       </c>
       <c r="H10" t="n">
-        <v>1.502476740562277</v>
+        <v>1.21054560288491</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4894743484898564</v>
+        <v>0.3349941280588987</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2113840378826922</v>
+        <v>0.2496617374086568</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3504291931862743</v>
+        <v>0.2923277282340568</v>
       </c>
       <c r="L10" t="n">
-        <v>1.601548376077804</v>
+        <v>1.368776780206106</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6298241887741758</v>
+        <v>0.500634803858774</v>
       </c>
       <c r="N10" t="n">
-        <v>1.021903067156316</v>
+        <v>1.013839115671097</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6566371084060986</v>
+        <v>0.521947863915954</v>
       </c>
       <c r="P10" t="n">
-        <v>179.8492582559215</v>
+        <v>180.767513512451</v>
       </c>
       <c r="Q10" t="n">
-        <v>288.3292066691914</v>
+        <v>289.2474619257209</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_29_9_16</t>
+          <t>model_29_9_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9389294322201853</v>
+        <v>0.9622006335264073</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7753058764851566</v>
+        <v>0.8189160076978599</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8123341593035242</v>
+        <v>0.6977629404569828</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8981851414227585</v>
+        <v>0.8774035744024188</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8957381034407116</v>
+        <v>0.8878562826267561</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4083791679477283</v>
+        <v>0.2527645376589936</v>
       </c>
       <c r="H11" t="n">
-        <v>1.502530638565063</v>
+        <v>1.210909490339526</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8004305008503034</v>
+        <v>0.3341664254364921</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2673178264728825</v>
+        <v>0.2438655424394374</v>
       </c>
       <c r="K11" t="n">
-        <v>0.533874163661593</v>
+        <v>0.2890158419746928</v>
       </c>
       <c r="L11" t="n">
-        <v>1.530521067524615</v>
+        <v>1.3820347144598</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6390455132052242</v>
+        <v>0.5027569369576054</v>
       </c>
       <c r="N11" t="n">
-        <v>1.022549132718701</v>
+        <v>1.01395668915948</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6662510037089497</v>
+        <v>0.5241603406142238</v>
       </c>
       <c r="P11" t="n">
-        <v>179.791118405871</v>
+        <v>180.750593809594</v>
       </c>
       <c r="Q11" t="n">
-        <v>288.2710668191409</v>
+        <v>289.2305422228638</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_29_9_17</t>
+          <t>model_29_9_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9385356466931412</v>
+        <v>0.9618668467918046</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7751339890148889</v>
+        <v>0.81884936324504</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8032606957126031</v>
+        <v>0.6983691391752522</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8954221808691776</v>
+        <v>0.8802782779470208</v>
       </c>
       <c r="F12" t="n">
-        <v>0.891250835032382</v>
+        <v>0.8890956626344954</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4110124135802887</v>
+        <v>0.2549965710902282</v>
       </c>
       <c r="H12" t="n">
-        <v>1.503680050870212</v>
+        <v>1.211355142102402</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8391305486564162</v>
+        <v>0.333496185793827</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2745720585185248</v>
+        <v>0.2381472587632225</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5568512698497563</v>
+        <v>0.2858217222785247</v>
       </c>
       <c r="L12" t="n">
-        <v>1.524107253919397</v>
+        <v>1.395436539392289</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6411024984979303</v>
+        <v>0.5049718517801048</v>
       </c>
       <c r="N12" t="n">
-        <v>1.022694530451763</v>
+        <v>1.014079933492257</v>
       </c>
       <c r="O12" t="n">
-        <v>0.668395559124113</v>
+        <v>0.5264695489462229</v>
       </c>
       <c r="P12" t="n">
-        <v>179.7782637231673</v>
+        <v>180.7330103612382</v>
       </c>
       <c r="Q12" t="n">
-        <v>288.2582121364371</v>
+        <v>289.212958774508</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_29_9_6</t>
+          <t>model_29_9_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9406493297855074</v>
+        <v>0.9615172678374088</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7751265674196544</v>
+        <v>0.8187700921698109</v>
       </c>
       <c r="D13" t="n">
-        <v>0.892165711461252</v>
+        <v>0.6988260324980857</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9214822435458903</v>
+        <v>0.8831109322128443</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9349591998806799</v>
+        <v>0.890286788194614</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3968782050090198</v>
+        <v>0.2573342071679362</v>
       </c>
       <c r="H13" t="n">
-        <v>1.503729679111719</v>
+        <v>1.211885228147469</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4599337485371524</v>
+        <v>0.3329910246837767</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2061506177795885</v>
+        <v>0.2325126183916842</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3330421171442757</v>
+        <v>0.28275196353752</v>
       </c>
       <c r="L13" t="n">
-        <v>1.614806724498386</v>
+        <v>1.408979099330905</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6299827021506382</v>
+        <v>0.5072811914194495</v>
       </c>
       <c r="N13" t="n">
-        <v>1.021914093617659</v>
+        <v>1.014209008798495</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6568023700251649</v>
+        <v>0.5288772019550065</v>
       </c>
       <c r="P13" t="n">
-        <v>179.848251667509</v>
+        <v>180.7147592438018</v>
       </c>
       <c r="Q13" t="n">
-        <v>288.3282000807789</v>
+        <v>289.1947076570717</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_29_9_18</t>
+          <t>model_29_9_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9381072064867412</v>
+        <v>0.9611515329053819</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7749315529337842</v>
+        <v>0.8186778171280548</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7940348176659111</v>
+        <v>0.699131392701243</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8925774169697013</v>
+        <v>0.8859000532457254</v>
       </c>
       <c r="F14" t="n">
-        <v>0.886679113549556</v>
+        <v>0.8914287189737138</v>
       </c>
       <c r="G14" t="n">
-        <v>0.413877395213271</v>
+        <v>0.2597798783424541</v>
       </c>
       <c r="H14" t="n">
-        <v>1.505033741876691</v>
+        <v>1.21250227177658</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8784806731025651</v>
+        <v>0.3326534051750575</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2820410675911015</v>
+        <v>0.2269645731668958</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5802608189149755</v>
+        <v>0.2798089891709767</v>
       </c>
       <c r="L14" t="n">
-        <v>1.517709026952934</v>
+        <v>1.422661929508837</v>
       </c>
       <c r="M14" t="n">
-        <v>0.643333036003337</v>
+        <v>0.5096860586110377</v>
       </c>
       <c r="N14" t="n">
-        <v>1.022852723758742</v>
+        <v>1.014344049388782</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6707210552289741</v>
+        <v>0.5313844493217019</v>
       </c>
       <c r="P14" t="n">
-        <v>179.7643709916896</v>
+        <v>180.695841256626</v>
       </c>
       <c r="Q14" t="n">
-        <v>288.2443194049594</v>
+        <v>289.1757896698958</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_29_9_5</t>
+          <t>model_29_9_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9405701104070543</v>
+        <v>0.9607691668841627</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7748984324646191</v>
+        <v>0.818572213989046</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8988197536340381</v>
+        <v>0.699280109882733</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9234064367451089</v>
+        <v>0.8886441480042568</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9382237812068231</v>
+        <v>0.8925196173810761</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3974079453575075</v>
+        <v>0.2623367616869807</v>
       </c>
       <c r="H15" t="n">
-        <v>1.505255218606504</v>
+        <v>1.213208440453389</v>
       </c>
       <c r="I15" t="n">
-        <v>0.431552993204825</v>
+        <v>0.3324889769973395</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2010985934393609</v>
+        <v>0.2215060930070329</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3163257933220929</v>
+        <v>0.2769975350021862</v>
       </c>
       <c r="L15" t="n">
-        <v>1.628117646385091</v>
+        <v>1.436488395153284</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6304030023385894</v>
+        <v>0.5121882092424431</v>
       </c>
       <c r="N15" t="n">
-        <v>1.021943343849703</v>
+        <v>1.014485230688924</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6572405632622584</v>
+        <v>0.5339931216856521</v>
       </c>
       <c r="P15" t="n">
-        <v>179.8455839114275</v>
+        <v>180.6762525012516</v>
       </c>
       <c r="Q15" t="n">
-        <v>288.3255323246973</v>
+        <v>289.1562009145214</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_29_9_19</t>
+          <t>model_29_9_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9376455218701611</v>
+        <v>0.960369731107959</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7746995711903334</v>
+        <v>0.8184528411899611</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7846673639935865</v>
+        <v>0.6992663284555879</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8896515207013382</v>
+        <v>0.8913395075618011</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8820276148125332</v>
+        <v>0.8935568511153172</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4169646823702036</v>
+        <v>0.2650077905616876</v>
       </c>
       <c r="H16" t="n">
-        <v>1.506585004863325</v>
+        <v>1.214006686910531</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9184346445168823</v>
+        <v>0.3325042143420036</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2897230920212642</v>
+        <v>0.2161445556101153</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6040788682690732</v>
+        <v>0.2743243849760594</v>
       </c>
       <c r="L16" t="n">
-        <v>1.511332661032067</v>
+        <v>1.450464116325119</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6457280250772794</v>
+        <v>0.5147890738561646</v>
       </c>
       <c r="N16" t="n">
-        <v>1.023023191924864</v>
+        <v>1.01463271466783</v>
       </c>
       <c r="O16" t="n">
-        <v>0.673218003946105</v>
+        <v>0.5367047104905116</v>
       </c>
       <c r="P16" t="n">
-        <v>179.749507510652</v>
+        <v>180.6559921101641</v>
       </c>
       <c r="Q16" t="n">
-        <v>288.2294559239218</v>
+        <v>289.1359405234339</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_29_9_4</t>
+          <t>model_29_9_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9404403802008925</v>
+        <v>0.9599527681716824</v>
       </c>
       <c r="C17" t="n">
-        <v>0.774628731700747</v>
+        <v>0.8183193645758036</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9051934059692982</v>
+        <v>0.6990845006137749</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9252647935029258</v>
+        <v>0.8939854709660743</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9413547196720951</v>
+        <v>0.8945389750677017</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3982754518434644</v>
+        <v>0.267796023636507</v>
       </c>
       <c r="H17" t="n">
-        <v>1.507058708856376</v>
+        <v>1.214899245644006</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4043681538540705</v>
+        <v>0.3327052511044554</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1962194245611374</v>
+        <v>0.2108812757248109</v>
       </c>
       <c r="K17" t="n">
-        <v>0.300293789207604</v>
+        <v>0.2717932634146332</v>
       </c>
       <c r="L17" t="n">
-        <v>1.64148744309494</v>
+        <v>1.4645855698906</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6310906843263212</v>
+        <v>0.5174901193612367</v>
       </c>
       <c r="N17" t="n">
-        <v>1.021991244233517</v>
+        <v>1.014786670213533</v>
       </c>
       <c r="O17" t="n">
-        <v>0.657957521295906</v>
+        <v>0.5395207450946697</v>
       </c>
       <c r="P17" t="n">
-        <v>179.8412228460452</v>
+        <v>180.6350593881866</v>
       </c>
       <c r="Q17" t="n">
-        <v>288.3211712593151</v>
+        <v>289.1150078014564</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_29_9_20</t>
+          <t>model_29_9_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9371519259785211</v>
+        <v>0.959517906066672</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7744390342940068</v>
+        <v>0.818171396045955</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7751692331013107</v>
+        <v>0.6987314898145</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8866439443173341</v>
+        <v>0.896579756219988</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8773007712673799</v>
+        <v>0.8954644357670188</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4202653603704005</v>
+        <v>0.2707039485350676</v>
       </c>
       <c r="H18" t="n">
-        <v>1.508327216288723</v>
+        <v>1.215888711884435</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9589459791264781</v>
+        <v>0.333095555182693</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2976195699338003</v>
+        <v>0.2057207926389094</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6282827215242551</v>
+        <v>0.2694081739108012</v>
       </c>
       <c r="L18" t="n">
-        <v>1.504971819573823</v>
+        <v>1.47885249433484</v>
       </c>
       <c r="M18" t="n">
-        <v>0.648278767483866</v>
+        <v>0.5202921761232505</v>
       </c>
       <c r="N18" t="n">
-        <v>1.023205442715623</v>
+        <v>1.014947234683075</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6758773367377047</v>
+        <v>0.5424420912140997</v>
       </c>
       <c r="P18" t="n">
-        <v>179.7337379136143</v>
+        <v>180.6134589921617</v>
       </c>
       <c r="Q18" t="n">
-        <v>288.2136863268842</v>
+        <v>289.0934074054315</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_29_9_3</t>
+          <t>model_29_9_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9402591365056397</v>
+        <v>0.9590645640984329</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7743168106305247</v>
+        <v>0.8180084926361625</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9112786439047575</v>
+        <v>0.6981980815020765</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9270579161889462</v>
+        <v>0.8991195761846714</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9443488257505448</v>
+        <v>0.8963302268475121</v>
       </c>
       <c r="G19" t="n">
-        <v>0.39948742926817</v>
+        <v>0.2737354483641298</v>
       </c>
       <c r="H19" t="n">
-        <v>1.509144526489216</v>
+        <v>1.216978047735819</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3784134567691017</v>
+        <v>0.3336853145898622</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1915115296062717</v>
+        <v>0.2006686504547716</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2849624368027733</v>
+        <v>0.2671768644450189</v>
       </c>
       <c r="L19" t="n">
-        <v>1.654909626699388</v>
+        <v>1.493274830026798</v>
       </c>
       <c r="M19" t="n">
-        <v>0.63205017939098</v>
+        <v>0.5231973321454628</v>
       </c>
       <c r="N19" t="n">
-        <v>1.022058164982533</v>
+        <v>1.015114622486732</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6589578640518959</v>
+        <v>0.5454709257426795</v>
       </c>
       <c r="P19" t="n">
-        <v>179.8351459608663</v>
+        <v>180.59118631185</v>
       </c>
       <c r="Q19" t="n">
-        <v>288.3150943741362</v>
+        <v>289.0711347251199</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_29_9_21</t>
+          <t>model_29_9_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9366278955063441</v>
+        <v>0.958592294088318</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7741509922719612</v>
+        <v>0.8178302550089573</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7655521330115654</v>
+        <v>0.6974824571760101</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8835557061150288</v>
+        <v>0.9016024130563743</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8725036720487525</v>
+        <v>0.8971348491142466</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4237695545507875</v>
+        <v>0.2768935200963712</v>
       </c>
       <c r="H20" t="n">
-        <v>1.510253354616454</v>
+        <v>1.218169923569649</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9999647399888372</v>
+        <v>0.3344765399391249</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3057278277598863</v>
+        <v>0.195729857520515</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6528463197117297</v>
+        <v>0.2651031987298199</v>
       </c>
       <c r="L20" t="n">
-        <v>1.498634863522555</v>
+        <v>1.507844562954971</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6509758479012777</v>
+        <v>0.5262067275286123</v>
       </c>
       <c r="N20" t="n">
-        <v>1.023398930889965</v>
+        <v>1.015288999105852</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6786892374522118</v>
+        <v>0.5486084373175969</v>
       </c>
       <c r="P20" t="n">
-        <v>179.7171309498393</v>
+        <v>180.5682445013623</v>
       </c>
       <c r="Q20" t="n">
-        <v>288.1970793631091</v>
+        <v>289.0481929146322</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_29_9_2</t>
+          <t>model_29_9_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9400253200152997</v>
+        <v>0.9581006930487554</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7739619822523192</v>
+        <v>0.8176362479727836</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9170681966439294</v>
+        <v>0.696577869732204</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9287893864940753</v>
+        <v>0.904026446970519</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9472039481017218</v>
+        <v>0.8978761575008735</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4010509612156997</v>
+        <v>0.2801808585115413</v>
       </c>
       <c r="H21" t="n">
-        <v>1.511517265488111</v>
+        <v>1.219467249513863</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3537199132796949</v>
+        <v>0.3354766911219362</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1869655047427364</v>
+        <v>0.1909080338622554</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2703427520695365</v>
+        <v>0.2631927050120952</v>
       </c>
       <c r="L21" t="n">
-        <v>1.668386204139304</v>
+        <v>1.522567629612632</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6332858447934074</v>
+        <v>0.5293211298555361</v>
       </c>
       <c r="N21" t="n">
-        <v>1.02214449722512</v>
+        <v>1.015470513335844</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6602461342886847</v>
+        <v>0.5518554261992795</v>
       </c>
       <c r="P21" t="n">
-        <v>179.8273335488486</v>
+        <v>180.544639922152</v>
       </c>
       <c r="Q21" t="n">
-        <v>288.3072819621184</v>
+        <v>289.0245883354219</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_29_9_22</t>
+          <t>model_29_9_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9360748729410393</v>
+        <v>0.9575889852234466</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7738364905735799</v>
+        <v>0.8174260047175615</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7558270194186583</v>
+        <v>0.6954760082354569</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8803868809771483</v>
+        <v>0.9063885878758488</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8676409441503623</v>
+        <v>0.8985514838395045</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4274676189914151</v>
+        <v>0.2836026510955795</v>
       </c>
       <c r="H22" t="n">
-        <v>1.512356428921676</v>
+        <v>1.220873147129614</v>
       </c>
       <c r="I22" t="n">
-        <v>1.041444198984184</v>
+        <v>0.3366949570693711</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3140476688927813</v>
+        <v>0.1862093261275987</v>
       </c>
       <c r="K22" t="n">
-        <v>0.677745970260391</v>
+        <v>0.2614522596716086</v>
       </c>
       <c r="L22" t="n">
-        <v>1.492314227762358</v>
+        <v>1.537448244492335</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6538100786860165</v>
+        <v>0.5325435673215662</v>
       </c>
       <c r="N22" t="n">
-        <v>1.023603123837155</v>
+        <v>1.015659451609804</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6816441273091234</v>
+        <v>0.5552150494996035</v>
       </c>
       <c r="P22" t="n">
-        <v>179.6997534770469</v>
+        <v>180.5203622727161</v>
       </c>
       <c r="Q22" t="n">
-        <v>288.1797018903167</v>
+        <v>289.0003106859859</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_29_9_1</t>
+          <t>model_29_9_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9397381429218414</v>
+        <v>0.9570569272907954</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7735636384667619</v>
+        <v>0.817199099826583</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9225557133775869</v>
+        <v>0.6941738060594339</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9304602705992631</v>
+        <v>0.9086871949417977</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9499177733371555</v>
+        <v>0.8991593077166931</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4029713157619835</v>
+        <v>0.2871605249411194</v>
       </c>
       <c r="H23" t="n">
-        <v>1.514180992216337</v>
+        <v>1.222390461180389</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3303146107949981</v>
+        <v>0.338134728376752</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1825785506819199</v>
+        <v>0.181636998212976</v>
       </c>
       <c r="K23" t="n">
-        <v>0.256446580738459</v>
+        <v>0.2598857811050625</v>
       </c>
       <c r="L23" t="n">
-        <v>1.681919930176964</v>
+        <v>1.552485752325365</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6348002172037936</v>
+        <v>0.535873609110506</v>
       </c>
       <c r="N23" t="n">
-        <v>1.022250531844243</v>
+        <v>1.015855903769552</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6618249766677641</v>
+        <v>0.5586868580616354</v>
       </c>
       <c r="P23" t="n">
-        <v>179.8177797926758</v>
+        <v>180.495427798463</v>
       </c>
       <c r="Q23" t="n">
-        <v>288.2977282059456</v>
+        <v>288.9753762117329</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_29_9_23</t>
+          <t>model_29_9_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9354941981624918</v>
+        <v>0.9565038282814465</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7734964676116742</v>
+        <v>0.8169551093630656</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7460038015251478</v>
+        <v>0.6926631033144343</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8771380134431657</v>
+        <v>0.9109185144096178</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8627168225487104</v>
+        <v>0.8996963757554091</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4313505939093233</v>
+        <v>0.2908591005634219</v>
       </c>
       <c r="H24" t="n">
-        <v>1.514630164033601</v>
+        <v>1.224022026533402</v>
       </c>
       <c r="I24" t="n">
-        <v>1.083342091479075</v>
+        <v>0.3398050269726851</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3225776636285075</v>
+        <v>0.1771985169952467</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7029599879274779</v>
+        <v>0.2585016538882824</v>
       </c>
       <c r="L24" t="n">
-        <v>1.486014464879435</v>
+        <v>1.567680404471958</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6567728632558774</v>
+        <v>0.5393135456887967</v>
       </c>
       <c r="N24" t="n">
-        <v>1.023817526832311</v>
+        <v>1.016060124942235</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6847330437519328</v>
+        <v>0.5622732398617144</v>
       </c>
       <c r="P24" t="n">
-        <v>179.6816681531974</v>
+        <v>180.4698326391448</v>
       </c>
       <c r="Q24" t="n">
-        <v>288.1616165664673</v>
+        <v>288.9497810524147</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_29_9_24</t>
+          <t>model_29_9_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9348871845473468</v>
+        <v>0.9559292130329698</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7731319573251723</v>
+        <v>0.8166935014166998</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7360935813850711</v>
+        <v>0.6909387800238866</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8738106894286006</v>
+        <v>0.9130803901892658</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8577363880088086</v>
+        <v>0.9001607616350383</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4354096967488394</v>
+        <v>0.2947015553758451</v>
       </c>
       <c r="H25" t="n">
-        <v>1.517067645997856</v>
+        <v>1.225771400075344</v>
       </c>
       <c r="I25" t="n">
-        <v>1.125611065101654</v>
+        <v>0.3417115137257338</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3313136481004574</v>
+        <v>0.1728981713112618</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7284623566010555</v>
+        <v>0.2573048425184978</v>
       </c>
       <c r="L25" t="n">
-        <v>1.479733890839257</v>
+        <v>1.58382651979863</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6598558151208789</v>
+        <v>0.5428642144918424</v>
       </c>
       <c r="N25" t="n">
-        <v>1.024041654936364</v>
+        <v>1.016272290572442</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6879472432604176</v>
+        <v>0.5659750679866035</v>
       </c>
       <c r="P25" t="n">
-        <v>179.6629357190641</v>
+        <v>180.4435842228493</v>
       </c>
       <c r="Q25" t="n">
-        <v>288.1428841323339</v>
+        <v>288.9235326361191</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9393966325772148</v>
+        <v>0.9553325320480579</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7731212681476677</v>
+        <v>0.8164138408156343</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9277353688901153</v>
+        <v>0.6889943245163452</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9320723515685554</v>
+        <v>0.9151707068109375</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9524883014462376</v>
+        <v>0.9005504103577721</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4052549970090122</v>
+        <v>0.2986915638694146</v>
       </c>
       <c r="H26" t="n">
-        <v>1.517139124577048</v>
+        <v>1.227641491802387</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3082223949674485</v>
+        <v>0.3438613882227856</v>
       </c>
       <c r="J26" t="n">
-        <v>0.178345985938115</v>
+        <v>0.1687401691971757</v>
       </c>
       <c r="K26" t="n">
-        <v>0.243284163885391</v>
+        <v>0.2563006431187182</v>
       </c>
       <c r="L26" t="n">
-        <v>1.695506832607168</v>
+        <v>1.600487963793359</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6365964161138611</v>
+        <v>0.5465268189845898</v>
       </c>
       <c r="N26" t="n">
-        <v>1.02237662797149</v>
+        <v>1.016492603551486</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6636976434840774</v>
+        <v>0.5697935971352436</v>
       </c>
       <c r="P26" t="n">
-        <v>179.8064775755201</v>
+        <v>180.4166875939595</v>
       </c>
       <c r="Q26" t="n">
-        <v>288.2864259887899</v>
+        <v>288.8966360072293</v>
       </c>
     </row>
   </sheetData>
